--- a/src/test/java/TestData/TestDataFile.xlsx
+++ b/src/test/java/TestData/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WeeklyTest_Demo-Nopcommerce\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE9DEB-9CED-46DF-9E2F-735074B7E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AEDBB-B060-4DDC-86B4-610713EEEFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>ravindersi@gmail.com</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Sector 71</t>
+  </si>
+  <si>
+    <t>ravinde@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -484,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/TestDataFile.xlsx
+++ b/src/test/java/TestData/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WeeklyTest_Demo-Nopcommerce\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AEDBB-B060-4DDC-86B4-610713EEEFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F716B2-4B67-4D68-B44D-04D2A48C0FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>Sector 71</t>
   </si>
   <si>
-    <t>ravinde@gmail.com</t>
+    <t>ravindersingh1808@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="8" width="8.6640625" customWidth="1"/>

--- a/src/test/java/TestData/TestDataFile.xlsx
+++ b/src/test/java/TestData/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WeeklyTest_Demo-Nopcommerce\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889B66A-B9A5-45E8-AEDA-0C0E775D4817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7AE09C-2942-4AA5-8D8F-C1ADAD15E47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -39,10 +39,22 @@
     <t>Singh</t>
   </si>
   <si>
-    <t>Product to search</t>
-  </si>
-  <si>
-    <t>Nikon</t>
+    <t>Nav menu option</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Mohali</t>
+  </si>
+  <si>
+    <t>Sector 71</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +422,7 @@
     <col min="6" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -430,6 +448,12 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
